--- a/xlsx/nor_oda_countries_oneyear.xlsx
+++ b/xlsx/nor_oda_countries_oneyear.xlsx
@@ -361,14 +361,14 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Beskrivelse</t>
+          <t>Metadata</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Arkfane Figurdata viser data for Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2023. Beløp er utbetalinger i NOK mill. Land med samlet negativ utbetaling er utelatt.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_countries_oneyear.xlsx
+++ b/xlsx/nor_oda_countries_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2023. Beløp er utbetalinger i NOK mill. Land med samlet negativ utbetaling er utelatt.</t>
+          <t>Arkfane Figurdata viser data for Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2024. Beløp er utbetalinger i NOK mill. Land med samlet negativ utbetaling er utelatt.</t>
         </is>
       </c>
     </row>
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>841.1287542600001</v>
+        <v>576.2476015780001</v>
       </c>
     </row>
     <row r="3">
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.086022</v>
+        <v>4.924849</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>60.867744849</v>
+        <v>61.870657854</v>
       </c>
     </row>
     <row r="6">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>1.643234077</v>
+        <v>1.91139</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>35.947</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.150892</v>
+        <v>0.059965</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>166.200267184</v>
+        <v>84.89774114399999</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>6.451899</v>
+        <v>20.471205</v>
       </c>
     </row>
     <row r="11">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.5515541859999999</v>
+        <v>0.852062999</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>18.182503996</v>
+        <v>13.596883995</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>10.91164918</v>
+        <v>3.61925278</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.606689987</v>
+        <v>0.195802062</v>
       </c>
     </row>
     <row r="16">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>315.260359905</v>
+        <v>925.0745626150001</v>
       </c>
     </row>
     <row r="17">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>59.183754624</v>
+        <v>69.022323845</v>
       </c>
     </row>
     <row r="18">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>8.974580309</v>
+        <v>13.507951698</v>
       </c>
     </row>
     <row r="19">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>447.944040679</v>
+        <v>524.129508005</v>
       </c>
     </row>
     <row r="20">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>14.784348588</v>
+        <v>10.708717909</v>
       </c>
     </row>
     <row r="21">
@@ -699,397 +699,397 @@
         </is>
       </c>
       <c r="C21">
-        <v>365.538093014</v>
+        <v>240.011429921</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Den Dominikanske Republikk</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.125</v>
+        <v>1.499999988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C23">
-        <v>1.499999995</v>
+        <v>28.464171027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C24">
-        <v>33.592093693</v>
+        <v>68.684337246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C25">
-        <v>45.862378716</v>
+        <v>4.046238999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>CIV</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Elfenbenskysten</t>
         </is>
       </c>
       <c r="C26">
-        <v>7.691498998</v>
+        <v>0.767334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Elfenbenskysten</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="C27">
-        <v>1.056587</v>
+        <v>7.865685054</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Etiopia</t>
         </is>
       </c>
       <c r="C28">
-        <v>7.091592063</v>
+        <v>673.104788104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Etiopia</t>
+          <t>Filippinene</t>
         </is>
       </c>
       <c r="C29">
-        <v>846.946240027</v>
+        <v>16.440532059</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Filippinene</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="C30">
-        <v>13.01309167</v>
+        <v>3.538398</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C31">
-        <v>3.359565896</v>
+        <v>37.42519096</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C32">
-        <v>51.31610756</v>
+        <v>142.549241012</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C33">
-        <v>151.080837629</v>
+        <v>58.608181064</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="C34">
-        <v>55.609879128</v>
+        <v>52.873273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="C35">
-        <v>11.60089965</v>
+        <v>56.823756628</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C36">
-        <v>78.117061921</v>
+        <v>6.234924499</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C37">
-        <v>13.830226997</v>
+        <v>101.426887898</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C38">
-        <v>73.298668506</v>
+        <v>1031.285289552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Irak</t>
         </is>
       </c>
       <c r="C39">
-        <v>733.174605004</v>
+        <v>147.890047436</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Irak</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C40">
-        <v>163.508204302</v>
+        <v>18.83285112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Jemen</t>
         </is>
       </c>
       <c r="C41">
-        <v>16.68335698</v>
+        <v>163.653004822</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jemen</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C42">
-        <v>322.42513292</v>
+        <v>137.51049656</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Kambodsja</t>
         </is>
       </c>
       <c r="C43">
-        <v>215.20599036</v>
+        <v>46.78922712</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kambodsja</t>
+          <t>Kamerun</t>
         </is>
       </c>
       <c r="C44">
-        <v>49.844499204</v>
+        <v>26.034336075</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kamerun</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="C45">
-        <v>22.776869185</v>
+        <v>128.710987989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Kina</t>
         </is>
       </c>
       <c r="C46">
-        <v>154.359923424</v>
+        <v>40.00573673</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kina</t>
+          <t>Kirgisistan</t>
         </is>
       </c>
       <c r="C47">
-        <v>53.777260307</v>
+        <v>0.33632951</v>
       </c>
     </row>
     <row r="48">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>23.80870715</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>18.615769987</v>
+        <v>18.691669413</v>
       </c>
     </row>
     <row r="50">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>2.134175992</v>
+        <v>2.288761992</v>
       </c>
     </row>
     <row r="51">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>454.713427685</v>
+        <v>428.640802417</v>
       </c>
     </row>
     <row r="52">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>74.225799752</v>
+        <v>20.308962466</v>
       </c>
     </row>
     <row r="53">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>56.141965156</v>
+        <v>31.020159841</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>90.62130960500001</v>
+        <v>70.86997682000001</v>
       </c>
     </row>
     <row r="55">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>1.97821132</v>
+        <v>1.287917</v>
       </c>
     </row>
     <row r="56">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>546.576164088</v>
+        <v>482.96868093</v>
       </c>
     </row>
     <row r="57">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>266.354985275</v>
+        <v>112.700780237</v>
       </c>
     </row>
     <row r="58">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>14.175023</v>
+        <v>3.466927</v>
       </c>
     </row>
     <row r="59">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>798.812057</v>
+        <v>551.89702563</v>
       </c>
     </row>
     <row r="61">
@@ -1294,247 +1294,247 @@
         </is>
       </c>
       <c r="C61">
-        <v>3.327644168</v>
+        <v>3.67558608</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Mosambik</t>
         </is>
       </c>
       <c r="C62">
-        <v>1.76097634</v>
+        <v>558.3818381470001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mosambik</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="C63">
-        <v>599.988338853</v>
+        <v>281.685482542</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="C64">
-        <v>344.744751505</v>
+        <v>0.564923</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.261083</v>
+        <v>342.562016359</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C66">
-        <v>349.507387333</v>
+        <v>4.849382718</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="C67">
-        <v>5.25791435</v>
+        <v>163.751014204</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="C68">
-        <v>163.280446733</v>
+        <v>225.310125989</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C69">
-        <v>294.714800435</v>
+        <v>83.565364327</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Palestina</t>
         </is>
       </c>
       <c r="C70">
-        <v>130.315288981</v>
+        <v>1303.290737385</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Palestina</t>
+          <t>Papua Ny-Guinea</t>
         </is>
       </c>
       <c r="C71">
-        <v>1212.031479841</v>
+        <v>23.845099179</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Papua Ny-Guinea</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C72">
-        <v>16.483899999</v>
+        <v>53.413904068</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Republikken Kongo</t>
         </is>
       </c>
       <c r="C73">
-        <v>162.4572753</v>
+        <v>6.119983337</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Republikken Kongo</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="C74">
-        <v>4.500425381</v>
+        <v>21.298234279</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="C75">
-        <v>33.60381644</v>
+        <v>7.033442958</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Sentralafrikanske Rep.</t>
         </is>
       </c>
       <c r="C76">
-        <v>2.567420033</v>
+        <v>43.905998894</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sentralafrikanske Rep.</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="C77">
-        <v>40.569999939</v>
+        <v>5.373908</v>
       </c>
     </row>
     <row r="78">
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>7.73276912</v>
+        <v>10.831356281</v>
       </c>
     </row>
     <row r="79">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>756.308261578</v>
+        <v>504.736265888</v>
       </c>
     </row>
     <row r="80">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>48.436103528</v>
+        <v>50.426306866</v>
       </c>
     </row>
     <row r="81">
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>521.377441765</v>
+        <v>561.798559828</v>
       </c>
     </row>
     <row r="82">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>1048.423790841</v>
+        <v>538.118624526</v>
       </c>
     </row>
     <row r="83">
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>39.29268317</v>
+        <v>42.88390581</v>
       </c>
     </row>
     <row r="84">
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>825.643279317</v>
+        <v>618.368689153</v>
       </c>
     </row>
     <row r="85">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>539.989532807</v>
+        <v>566.096656691</v>
       </c>
     </row>
     <row r="87">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>18.390312999</v>
+        <v>17.473620997</v>
       </c>
     </row>
     <row r="88">
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.320658558</v>
+        <v>2.82978</v>
       </c>
     </row>
     <row r="89">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>33.999999923</v>
       </c>
     </row>
     <row r="90">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>16.819476668</v>
+        <v>13.920674443</v>
       </c>
     </row>
     <row r="91">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>138.91357222</v>
+        <v>22.52337497</v>
       </c>
     </row>
     <row r="92">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>437.222111556</v>
+        <v>306.202321172</v>
       </c>
     </row>
     <row r="93">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>7946.214990718</v>
+        <v>9257.25304202</v>
       </c>
     </row>
     <row r="94">
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>111.159671107</v>
+        <v>45.13779382</v>
       </c>
     </row>
     <row r="95">
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>37.84030755</v>
+        <v>35.598581599</v>
       </c>
     </row>
     <row r="96">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>79.78562366600001</v>
+        <v>33.103114238</v>
       </c>
     </row>
     <row r="97">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>71.906860794</v>
+        <v>59.620555278</v>
       </c>
     </row>
     <row r="98">

--- a/xlsx/nor_oda_countries_oneyear.xlsx
+++ b/xlsx/nor_oda_countries_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp, 2024. Beløp er utbetalinger i NOK mill. Land med samlet negativ utbetaling er utelatt.</t>
+          <t>Arkfane Figurdata inneholder data om ti største mottakerland av norsk landspesifisert bistand, fordelt på langsiktig bistand og nødhjelp. 2024. Beløp er utbetalinger i NOK mill. Land med samlet negativ utbetaling er utelatt.</t>
         </is>
       </c>
     </row>
